--- a/Daily Schedule/Daily_Schedule_2022.xlsx
+++ b/Daily Schedule/Daily_Schedule_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Documents/2022/Amar_2022/Daily Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1954" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC995704-CD25-4503-BC5D-1DEB1B9651CD}"/>
+  <xr:revisionPtr revIDLastSave="1957" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19F715E2-1AF1-4339-ACEF-4D3465D18B9B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="533">
   <si>
     <t>Date</t>
   </si>
@@ -2285,6 +2285,12 @@
   <si>
     <t>Scaler Revision - Intermediate
 Puppy hospital</t>
+  </si>
+  <si>
+    <t>Scaler - Revision Intermediate
+Scaler DSA contest 2
+Scaler contest 1,2,3
+github</t>
   </si>
 </sst>
 </file>
@@ -2663,27 +2669,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2761,6 +2746,27 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3441,7 +3447,7 @@
   <dimension ref="C3:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3887,14 +3893,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="H33" s="8">
         <v>44864</v>
       </c>
-      <c r="I33" s="17"/>
+      <c r="I33" s="16" t="s">
+        <v>532</v>
+      </c>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
-      <c r="L33" s="9"/>
+      <c r="L33" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H34" s="8">
@@ -3946,53 +3956,53 @@
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
-      <c r="U1" s="78" t="s">
+      <c r="U1" s="71" t="s">
         <v>512</v>
       </c>
-      <c r="V1" s="78" t="s">
+      <c r="V1" s="71" t="s">
         <v>511</v>
       </c>
-      <c r="W1" s="78" t="s">
+      <c r="W1" s="71" t="s">
         <v>513</v>
       </c>
-      <c r="X1" s="78" t="s">
+      <c r="X1" s="71" t="s">
         <v>514</v>
       </c>
-      <c r="Y1" s="78" t="s">
+      <c r="Y1" s="71" t="s">
         <v>515</v>
       </c>
-      <c r="Z1" s="78" t="s">
+      <c r="Z1" s="71" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="2" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="G2" s="55" t="s">
+      <c r="E2" s="75"/>
+      <c r="G2" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="55"/>
+      <c r="H2" s="75"/>
       <c r="K2" s="5" t="s">
         <v>137</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="56" t="s">
+      <c r="N2" s="49" t="s">
         <v>427</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="O2" s="49" t="s">
         <v>12</v>
       </c>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="79" t="s">
+      <c r="S2" s="72" t="s">
         <v>502</v>
       </c>
-      <c r="T2" s="62">
+      <c r="T2" s="55">
         <v>2098748</v>
       </c>
       <c r="U2" s="4">
@@ -4007,11 +4017,11 @@
       <c r="X2" s="4">
         <v>9516</v>
       </c>
-      <c r="Y2" s="81">
+      <c r="Y2" s="74">
         <f>381809/12</f>
         <v>31817.416666666668</v>
       </c>
-      <c r="Z2" s="81">
+      <c r="Z2" s="74">
         <f>(W2-X2-Y2)</f>
         <v>113930.58333333333</v>
       </c>
@@ -4046,7 +4056,7 @@
       <c r="R3" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="S3" s="80" t="s">
+      <c r="S3" s="73" t="s">
         <v>508</v>
       </c>
       <c r="T3" s="4">
@@ -4089,7 +4099,7 @@
       <c r="R4" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="72" t="s">
         <v>510</v>
       </c>
       <c r="T4" s="4">
@@ -4132,7 +4142,7 @@
       <c r="R5" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="S5" s="79" t="s">
+      <c r="S5" s="72" t="s">
         <v>516</v>
       </c>
       <c r="T5" s="4">
@@ -4146,10 +4156,10 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="50">
         <v>13368</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -4172,10 +4182,10 @@
       </c>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6" s="76" t="s">
+      <c r="R6" s="69" t="s">
         <v>517</v>
       </c>
-      <c r="S6" s="79" t="s">
+      <c r="S6" s="72" t="s">
         <v>41</v>
       </c>
       <c r="T6" s="4">
@@ -4215,7 +4225,7 @@
       <c r="R7" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="S7" s="79" t="s">
+      <c r="S7" s="72" t="s">
         <v>520</v>
       </c>
       <c r="T7" s="4">
@@ -4235,10 +4245,10 @@
       <c r="E8" s="4">
         <v>500</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="50">
         <v>50000</v>
       </c>
       <c r="K8" s="4" t="s">
@@ -4254,7 +4264,7 @@
       <c r="R8" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="S8" s="79" t="s">
+      <c r="S8" s="72" t="s">
         <v>502</v>
       </c>
       <c r="T8" s="4"/>
@@ -4280,10 +4290,10 @@
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="N9" s="58" t="s">
+      <c r="N9" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="58">
+      <c r="O9" s="51">
         <f>SUM(O3:O8)</f>
         <v>69000</v>
       </c>
@@ -4324,7 +4334,7 @@
       <c r="R11" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="S11" s="77" t="s">
+      <c r="S11" s="70" t="s">
         <v>504</v>
       </c>
     </row>
@@ -4341,10 +4351,10 @@
       <c r="H12" s="4">
         <v>3000</v>
       </c>
-      <c r="K12" s="59" t="s">
+      <c r="K12" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="59">
+      <c r="L12" s="52">
         <f>SUM(L3:L11)</f>
         <v>130000</v>
       </c>
@@ -4362,10 +4372,10 @@
       <c r="H13" s="4">
         <v>10000</v>
       </c>
-      <c r="K13" s="60" t="s">
+      <c r="K13" s="53" t="s">
         <v>497</v>
       </c>
-      <c r="L13" s="61">
+      <c r="L13" s="54">
         <f>SUM(H18+L12)</f>
         <v>259306</v>
       </c>
@@ -4386,7 +4396,7 @@
       <c r="K14" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="L14" s="62">
+      <c r="L14" s="55">
         <f>L13/0.6</f>
         <v>432176.66666666669</v>
       </c>
@@ -4407,10 +4417,10 @@
       <c r="J15" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="K15" s="60" t="s">
+      <c r="K15" s="53" t="s">
         <v>502</v>
       </c>
-      <c r="L15" s="61">
+      <c r="L15" s="54">
         <f>(L14/0.88)*12</f>
         <v>5893318.1818181816</v>
       </c>
@@ -4422,10 +4432,10 @@
       <c r="E16" s="4">
         <v>5000</v>
       </c>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="64">
+      <c r="H16" s="57">
         <f>SUM(H6:H15)</f>
         <v>164856</v>
       </c>
@@ -4446,10 +4456,10 @@
       <c r="E17" s="4">
         <v>5000</v>
       </c>
-      <c r="G17" s="65" t="s">
+      <c r="G17" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="66">
+      <c r="H17" s="59">
         <f>(H16/12)</f>
         <v>13738</v>
       </c>
@@ -4467,10 +4477,10 @@
       <c r="E18" s="4">
         <v>5000</v>
       </c>
-      <c r="G18" s="67" t="s">
+      <c r="G18" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="68">
+      <c r="H18" s="61">
         <f>SUM(H17,E21)</f>
         <v>129306</v>
       </c>
@@ -4484,73 +4494,73 @@
       <c r="E19" s="4">
         <v>5000</v>
       </c>
-      <c r="K19" s="69" t="s">
+      <c r="K19" s="62" t="s">
         <v>503</v>
       </c>
-      <c r="L19" s="70">
+      <c r="L19" s="63">
         <f>SUM(L13+L16+L18+L17)</f>
         <v>859306</v>
       </c>
     </row>
     <row r="20" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="64">
         <v>5000</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="72">
+      <c r="H20" s="65">
         <v>107000</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="L20" s="81">
+      <c r="L20" s="74">
         <f>(L19/0.6)</f>
         <v>1432176.6666666667</v>
       </c>
     </row>
     <row r="21" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="66">
+      <c r="E21" s="59">
         <f>SUM(E4:E20)</f>
         <v>115568</v>
       </c>
-      <c r="G21" s="71" t="s">
+      <c r="G21" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="73">
+      <c r="H21" s="66">
         <f>(200000/12)</f>
         <v>16666.666666666668</v>
       </c>
-      <c r="K21" s="69" t="s">
+      <c r="K21" s="62" t="s">
         <v>502</v>
       </c>
-      <c r="L21" s="70">
+      <c r="L21" s="63">
         <f>(L20/0.88)*12</f>
         <v>19529681.81818182</v>
       </c>
     </row>
     <row r="22" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="75">
+      <c r="H22" s="68">
         <f>SUM(H20:H21)</f>
         <v>123666.66666666667</v>
       </c>
-      <c r="J22" s="57" t="s">
+      <c r="J22" s="50" t="s">
         <v>505</v>
       </c>
       <c r="K22" s="45" t="s">
         <v>506</v>
       </c>
-      <c r="L22" s="76">
+      <c r="L22" s="69">
         <v>0.23</v>
       </c>
     </row>
@@ -4558,12 +4568,12 @@
       <c r="K23" s="45" t="s">
         <v>507</v>
       </c>
-      <c r="L23" s="76">
+      <c r="L23" s="69">
         <v>0.34</v>
       </c>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="K24" s="77"/>
+      <c r="K24" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4598,30 +4608,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="F1" s="50" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="F1" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="I1" s="49" t="s">
+      <c r="G1" s="77"/>
+      <c r="I1" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="M1" s="49" t="s">
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="M1" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="Q1" s="50" t="s">
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="Q1" s="77" t="s">
         <v>240</v>
       </c>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
@@ -4902,11 +4912,11 @@
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="77" t="s">
         <v>221</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
       <c r="Q10" s="7">
         <v>8</v>
       </c>
@@ -4990,11 +5000,11 @@
       <c r="S14" s="17"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="80"/>
       <c r="Q15" s="7">
         <v>13</v>
       </c>
@@ -5098,11 +5108,11 @@
       <c r="S22" s="17"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="77" t="s">
         <v>224</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
       <c r="Q23" s="7">
         <v>21</v>
       </c>
@@ -7524,10 +7534,10 @@
       </c>
     </row>
     <row r="30" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="81" t="s">
         <v>160</v>
       </c>
       <c r="D30" s="8">
@@ -7545,8 +7555,8 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
       <c r="D31" s="8">
         <v>44831</v>
       </c>
@@ -7562,8 +7572,8 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
       <c r="D32" s="8">
         <v>44832</v>
       </c>
@@ -7579,8 +7589,8 @@
       </c>
     </row>
     <row r="33" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
       <c r="D33" s="8">
         <v>44833</v>
       </c>
@@ -7594,8 +7604,8 @@
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="2:8" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
       <c r="D34" s="8">
         <v>44834</v>
       </c>

--- a/Daily Schedule/Daily_Schedule_2022.xlsx
+++ b/Daily Schedule/Daily_Schedule_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Documents/2022/Amar_2022/Daily Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1957" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19F715E2-1AF1-4339-ACEF-4D3465D18B9B}"/>
+  <xr:revisionPtr revIDLastSave="2024" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E75E7CC1-D4B4-489A-B2CA-20E60FA35C5C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principles" sheetId="2" r:id="rId1"/>
@@ -23,9 +23,11 @@
     <sheet name="August" sheetId="1" state="hidden" r:id="rId8"/>
     <sheet name="September" sheetId="5" state="hidden" r:id="rId9"/>
     <sheet name="October" sheetId="10" r:id="rId10"/>
+    <sheet name="November" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Family_Dates!$D$2:$F$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Network!$I$13:$K$94</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">September!$D$4:$H$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="541">
   <si>
     <t>Date</t>
   </si>
@@ -2248,9 +2250,6 @@
     <t>HRA</t>
   </si>
   <si>
-    <t>Ygross+Bonus+12K</t>
-  </si>
-  <si>
     <t>50% monthly gross</t>
   </si>
   <si>
@@ -2291,6 +2290,41 @@
 Scaler DSA contest 2
 Scaler contest 1,2,3
 github</t>
+  </si>
+  <si>
+    <t>Taxable Allowance</t>
+  </si>
+  <si>
+    <t>20% Basic</t>
+  </si>
+  <si>
+    <t>Broadband+child care</t>
+  </si>
+  <si>
+    <t>Broadbandchild care</t>
+  </si>
+  <si>
+    <t>Prod issue
+Users for GSO
+Reopen testing</t>
+  </si>
+  <si>
+    <t>Scaler - Intermediate Revision
+Scaler - AM, HW
+Finance - transfers, sheet
+Weekly and Monthly Check</t>
+  </si>
+  <si>
+    <t>Scaler class Arrays 3
+Java AB Revise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prod issue
+</t>
+  </si>
+  <si>
+    <t>Reading
+Writing</t>
   </si>
 </sst>
 </file>
@@ -2563,7 +2597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2767,6 +2801,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3446,8 +3483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C650BB2-D140-403B-8898-95FB90824DA8}">
   <dimension ref="C3:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3844,10 +3881,10 @@
         <v>44860</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K29" s="17"/>
       <c r="L29" s="9">
@@ -3859,7 +3896,7 @@
         <v>44861</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
@@ -3872,7 +3909,7 @@
         <v>44862</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
@@ -3885,7 +3922,7 @@
         <v>44863</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
@@ -3898,7 +3935,7 @@
         <v>44864</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
@@ -3906,18 +3943,341 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="H34" s="8">
         <v>44865</v>
       </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
+      <c r="I34" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>536</v>
+      </c>
       <c r="K34" s="17"/>
-      <c r="L34" s="9"/>
+      <c r="L34" s="9">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0711C60-6686-40C5-A9B5-057F5E0CC9FE}">
+  <dimension ref="E3:I33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="8.88671875" style="6"/>
+    <col min="6" max="6" width="33.21875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="35.109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E4" s="82">
+        <v>44866</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="I4" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E5" s="82">
+        <v>44867</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E6" s="82">
+        <v>44868</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E7" s="82">
+        <v>44869</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E8" s="82">
+        <v>44870</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E9" s="82">
+        <v>44871</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E10" s="82">
+        <v>44872</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E11" s="82">
+        <v>44873</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E12" s="82">
+        <v>44874</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E13" s="82">
+        <v>44875</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E14" s="82">
+        <v>44876</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E15" s="82">
+        <v>44877</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E16" s="82">
+        <v>44878</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E17" s="82">
+        <v>44879</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E18" s="82">
+        <v>44880</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E19" s="82">
+        <v>44881</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E20" s="82">
+        <v>44882</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E21" s="82">
+        <v>44883</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E22" s="82">
+        <v>44884</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E23" s="82">
+        <v>44885</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E24" s="82">
+        <v>44886</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E25" s="82">
+        <v>44887</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E26" s="82">
+        <v>44888</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E27" s="82">
+        <v>44889</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E28" s="82">
+        <v>44890</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E29" s="82">
+        <v>44891</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E30" s="82">
+        <v>44892</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E31" s="82">
+        <v>44893</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E32" s="82">
+        <v>44894</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E33" s="82">
+        <v>44895</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3926,7 +4286,7 @@
   <dimension ref="D1:Z24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3972,7 +4332,7 @@
         <v>515</v>
       </c>
       <c r="Z1" s="71" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="4:26" x14ac:dyDescent="0.3">
@@ -4022,8 +4382,7 @@
         <v>31817.416666666668</v>
       </c>
       <c r="Z2" s="74">
-        <f>(W2-X2-Y2)</f>
-        <v>113930.58333333333</v>
+        <v>116107</v>
       </c>
     </row>
     <row r="3" spans="4:26" x14ac:dyDescent="0.3">
@@ -4054,7 +4413,7 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="S3" s="73" t="s">
         <v>508</v>
@@ -4097,13 +4456,14 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4" s="4" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="S4" s="72" t="s">
-        <v>510</v>
+        <v>41</v>
       </c>
       <c r="T4" s="4">
-        <v>9316</v>
+        <f>(T3*0.2)</f>
+        <v>15526</v>
       </c>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
@@ -4140,13 +4500,14 @@
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5" s="4" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="S5" s="72" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="T5" s="4">
-        <v>3764</v>
+        <f>(T3*0.2)</f>
+        <v>15526</v>
       </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
@@ -4182,14 +4543,14 @@
       </c>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6" s="69" t="s">
-        <v>517</v>
+      <c r="R6" s="4" t="s">
+        <v>519</v>
       </c>
       <c r="S6" s="72" t="s">
-        <v>41</v>
+        <v>520</v>
       </c>
       <c r="T6" s="4">
-        <v>223580</v>
+        <v>33532</v>
       </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
@@ -4222,14 +4583,14 @@
       </c>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7" s="4" t="s">
-        <v>519</v>
+      <c r="R7" s="69" t="s">
+        <v>517</v>
       </c>
       <c r="S7" s="72" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="T7" s="4">
-        <v>33532</v>
+        <v>3000</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
@@ -4262,12 +4623,14 @@
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8" s="4" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="S8" s="72" t="s">
-        <v>502</v>
-      </c>
-      <c r="T8" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="T8" s="4">
+        <v>223580</v>
+      </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
@@ -4299,6 +4662,15 @@
       </c>
       <c r="P9"/>
       <c r="Q9"/>
+      <c r="R9" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="S9" s="72" t="s">
+        <v>516</v>
+      </c>
+      <c r="T9" s="4">
+        <v>3764</v>
+      </c>
     </row>
     <row r="10" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D10" s="4" t="s">
@@ -4315,6 +4687,15 @@
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
+      <c r="R10" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="S10" s="72" t="s">
+        <v>510</v>
+      </c>
+      <c r="T10" s="4">
+        <v>9316</v>
+      </c>
     </row>
     <row r="11" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D11" s="4" t="s">
@@ -4332,7 +4713,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="R11" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="S11" s="70" t="s">
         <v>504</v>
@@ -4379,6 +4760,15 @@
         <f>SUM(H18+L12)</f>
         <v>259306</v>
       </c>
+      <c r="R13" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="S13" s="72" t="s">
+        <v>520</v>
+      </c>
+      <c r="T13" s="4">
+        <v>33532</v>
+      </c>
     </row>
     <row r="14" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D14" s="4" t="s">
@@ -4400,6 +4790,15 @@
         <f>L13/0.6</f>
         <v>432176.66666666669</v>
       </c>
+      <c r="R14" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="S14" s="72" t="s">
+        <v>516</v>
+      </c>
+      <c r="T14" s="4">
+        <v>3764</v>
+      </c>
     </row>
     <row r="15" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D15" s="4" t="s">
@@ -4415,7 +4814,7 @@
         <v>15000</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K15" s="53" t="s">
         <v>502</v>
@@ -4424,6 +4823,15 @@
         <f>(L14/0.88)*12</f>
         <v>5893318.1818181816</v>
       </c>
+      <c r="R15" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="S15" s="72" t="s">
+        <v>510</v>
+      </c>
+      <c r="T15" s="4">
+        <v>9316</v>
+      </c>
     </row>
     <row r="16" spans="4:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="4" t="s">
@@ -4440,7 +4848,7 @@
         <v>164856</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>499</v>
@@ -4513,7 +4921,7 @@
         <v>42</v>
       </c>
       <c r="H20" s="65">
-        <v>107000</v>
+        <v>116107</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>501</v>
@@ -4535,8 +4943,7 @@
         <v>41</v>
       </c>
       <c r="H21" s="66">
-        <f>(200000/12)</f>
-        <v>16666.666666666668</v>
+        <v>18631</v>
       </c>
       <c r="K21" s="62" t="s">
         <v>502</v>
@@ -4552,7 +4959,7 @@
       </c>
       <c r="H22" s="68">
         <f>SUM(H20:H21)</f>
-        <v>123666.66666666667</v>
+        <v>134738</v>
       </c>
       <c r="J22" s="50" t="s">
         <v>505</v>
@@ -4590,10 +4997,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793109CE-B9DA-4197-A068-6AFB5BC24F21}">
-  <dimension ref="B1:S40"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:S94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4601,8 +5009,9 @@
     <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="21.44140625" customWidth="1"/>
   </cols>
@@ -4977,6 +5386,24 @@
       <c r="D13" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="I13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="Q13" s="7">
         <v>11</v>
       </c>
@@ -4987,10 +5414,28 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
+      <c r="I14" s="30">
+        <v>44566</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="Q14" s="7">
         <v>12</v>
       </c>
@@ -4999,12 +5444,30 @@
       </c>
       <c r="S14" s="17"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" s="78" t="s">
         <v>222</v>
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="80"/>
+      <c r="I15" s="30">
+        <v>44568</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="Q15" s="7">
         <v>13</v>
       </c>
@@ -5013,7 +5476,7 @@
       </c>
       <c r="S15" s="17"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
@@ -5023,13 +5486,31 @@
       <c r="D16" s="2" t="s">
         <v>168</v>
       </c>
+      <c r="I16" s="30">
+        <v>44572</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="Q16" s="7">
         <v>14</v>
       </c>
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
         <v>1</v>
       </c>
@@ -5039,13 +5520,31 @@
       <c r="D17" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="I17" s="30">
+        <v>44572</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="Q17" s="7">
         <v>15</v>
       </c>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>2</v>
       </c>
@@ -5055,71 +5554,173 @@
       <c r="D18" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="I18" s="30">
+        <v>44585</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="Q18" s="7">
         <v>16</v>
       </c>
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="23" t="s">
         <v>183</v>
       </c>
+      <c r="I19" s="30">
+        <v>44587</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="Q19" s="7">
         <v>17</v>
       </c>
       <c r="R19" s="17"/>
       <c r="S19" s="17"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="23" t="s">
         <v>184</v>
       </c>
+      <c r="I20" s="30">
+        <v>44589</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="Q20" s="7">
         <v>18</v>
       </c>
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="23" t="s">
         <v>185</v>
       </c>
+      <c r="I21" s="30">
+        <v>44592</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="Q21" s="7">
         <v>19</v>
       </c>
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
       <c r="D22" s="24"/>
+      <c r="I22" s="31">
+        <v>44594</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="O22" s="1"/>
       <c r="Q22" s="7">
         <v>20</v>
       </c>
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="77" t="s">
         <v>224</v>
       </c>
       <c r="C23" s="77"/>
       <c r="D23" s="77"/>
+      <c r="I23" s="31">
+        <v>44595</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O23" s="1"/>
       <c r="Q23" s="7">
         <v>21</v>
       </c>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
@@ -5129,13 +5730,31 @@
       <c r="D24" s="2" t="s">
         <v>168</v>
       </c>
+      <c r="I24" s="31">
+        <v>44595</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>470</v>
+      </c>
       <c r="Q24" s="7">
         <v>22</v>
       </c>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7">
         <v>1</v>
       </c>
@@ -5145,8 +5764,26 @@
       <c r="D25" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="I25" s="31">
+        <v>44603</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7">
         <v>2</v>
       </c>
@@ -5154,8 +5791,22 @@
         <v>187</v>
       </c>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="I26" s="31">
+        <v>44603</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7">
         <v>3</v>
       </c>
@@ -5163,8 +5814,24 @@
         <v>188</v>
       </c>
       <c r="D27" s="23"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="I27" s="31">
+        <v>44611</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7">
         <v>4</v>
       </c>
@@ -5172,13 +5839,61 @@
         <v>189</v>
       </c>
       <c r="D28" s="23"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="I28" s="32">
+        <v>44627</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
       <c r="C29" s="1"/>
       <c r="D29" s="23"/>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="I29" s="32">
+        <v>44628</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="32">
+        <v>44628</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>1</v>
       </c>
@@ -5188,8 +5903,22 @@
       <c r="D31" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="I31" s="32">
+        <v>44641</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="7">
         <v>1</v>
       </c>
@@ -5199,8 +5928,26 @@
       <c r="D32" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="I32" s="32">
+        <v>44645</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7">
         <v>2</v>
       </c>
@@ -5210,8 +5957,24 @@
       <c r="D33" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="I33" s="32">
+        <v>44646</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7">
         <v>3</v>
       </c>
@@ -5221,8 +5984,24 @@
       <c r="D34" s="23" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="I34" s="33">
+        <v>44662</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="7">
         <v>4</v>
       </c>
@@ -5232,8 +6011,20 @@
       <c r="D35" s="23" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="I35" s="33">
+        <v>44669</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="25">
         <v>5</v>
       </c>
@@ -5243,8 +6034,20 @@
       <c r="D36" s="23" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="I36" s="33">
+        <v>44678</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="25">
         <v>6</v>
       </c>
@@ -5252,8 +6055,20 @@
         <v>208</v>
       </c>
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="I37" s="34">
+        <v>44697</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="25">
         <v>7</v>
       </c>
@@ -5261,20 +6076,657 @@
         <v>209</v>
       </c>
       <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="I38" s="34">
+        <v>44705</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="25">
         <v>8</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="I39" s="34">
+        <v>44705</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
+      <c r="I40" s="34">
+        <v>44708</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I41" s="35">
+        <v>44714</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I42" s="35">
+        <v>44718</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I43" s="35">
+        <v>44719</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I44" s="35">
+        <v>44722</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I45" s="35">
+        <v>44728</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I46" s="35">
+        <v>44729</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I47" s="35">
+        <v>44734</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I48" s="35">
+        <v>44735</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I49" s="35">
+        <v>44740</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="50" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I50" s="35">
+        <v>44741</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I51" s="36">
+        <v>44743</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I52" s="36">
+        <v>44747</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I53" s="36">
+        <v>44756</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I54" s="36">
+        <v>44759</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="55" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I55" s="36">
+        <v>44762</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="56" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I56" s="36">
+        <v>44766</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="57" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I57" s="36">
+        <v>44768</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I58" s="36">
+        <v>44768</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="59" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I59" s="32">
+        <v>44782</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I60" s="32">
+        <v>44788</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I61" s="32">
+        <v>44791</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="62" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I62" s="32">
+        <v>44796</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="63" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I63" s="32">
+        <v>44797</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="64" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I64" s="32">
+        <v>44797</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="65" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I65" s="32">
+        <v>44802</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="66" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I66" s="32">
+        <v>44804</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="67" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I67" s="32">
+        <v>44804</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="68" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I68" s="37">
+        <v>44809</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="69" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I69" s="37">
+        <v>44811</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="70" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I70" s="37">
+        <v>44813</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="71" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I71" s="37">
+        <v>44820</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="72" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I72" s="37">
+        <v>44823</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="73" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I73" s="37">
+        <v>44826</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="74" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I74" s="38">
+        <v>44837</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="75" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I75" s="38">
+        <v>44839</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="76" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I76" s="38">
+        <v>44841</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="77" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I77" s="38">
+        <v>44844</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="78" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I78" s="38">
+        <v>44846</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="79" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I79" s="38">
+        <v>44848</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="80" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I80" s="38">
+        <v>44848</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I81" s="38">
+        <v>44851</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="82" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I82" s="38">
+        <v>44852</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="83" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I83" s="38">
+        <v>44862</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="84" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I84" s="38">
+        <v>44864</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" spans="9:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I85" s="38">
+        <v>44864</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="86" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I86" s="34">
+        <v>44870</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="87" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I87" s="34">
+        <v>44875</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="88" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I88" s="34">
+        <v>44878</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="89" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I89" s="34">
+        <v>44878</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="90" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I90" s="34">
+        <v>44879</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="91" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I91" s="34">
+        <v>44880</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="92" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I92" s="34">
+        <v>44888</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="93" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I93" s="34">
+        <v>44890</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="94" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I94" s="34">
+        <v>44892</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>329</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="I13:K94" xr:uid="{793109CE-B9DA-4197-A068-6AFB5BC24F21}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2022" month="11" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="B23:D23"/>
@@ -5294,8 +6746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431CB8B3-805D-4853-8F85-77D36BE0E0D7}">
   <dimension ref="D2:O83"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Daily Schedule/Daily_Schedule_2022.xlsx
+++ b/Daily Schedule/Daily_Schedule_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Documents/2022/Amar_2022/Daily Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2024" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E75E7CC1-D4B4-489A-B2CA-20E60FA35C5C}"/>
+  <xr:revisionPtr revIDLastSave="2127" documentId="13_ncr:1_{37DFCD91-C40D-4851-A7FF-D1781FDB40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5E1B826-FE51-40D7-9D7F-46D5A6460A02}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Principles" sheetId="2" r:id="rId1"/>
     <sheet name="Finance" sheetId="3" r:id="rId2"/>
     <sheet name="Network" sheetId="8" r:id="rId3"/>
-    <sheet name="Family_Dates" sheetId="9" r:id="rId4"/>
+    <sheet name="Family_Dates" sheetId="9" state="hidden" r:id="rId4"/>
     <sheet name="Later" sheetId="6" r:id="rId5"/>
     <sheet name="Monthly_check" sheetId="4" r:id="rId6"/>
     <sheet name="Weekly_check" sheetId="11" r:id="rId7"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="576">
   <si>
     <t>Date</t>
   </si>
@@ -2325,6 +2325,137 @@
   <si>
     <t>Reading
 Writing</t>
+  </si>
+  <si>
+    <t>Scaler class Bit Man 1
+Scaler AM, HW</t>
+  </si>
+  <si>
+    <t>Scaler AM Arrays 3</t>
+  </si>
+  <si>
+    <t>WFN integration
+Perf execution session</t>
+  </si>
+  <si>
+    <t>Reading
+Writing
+Java AB</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>College CBIT</t>
+  </si>
+  <si>
+    <t>Job - courses</t>
+  </si>
+  <si>
+    <t>Books - study</t>
+  </si>
+  <si>
+    <t>Books - others</t>
+  </si>
+  <si>
+    <t>Scaler AM, HW
+Movie
+Call - Varun</t>
+  </si>
+  <si>
+    <t>Java AB
+Read, Write</t>
+  </si>
+  <si>
+    <t>Isha</t>
+  </si>
+  <si>
+    <t>Programs</t>
+  </si>
+  <si>
+    <t>Consecrated</t>
+  </si>
+  <si>
+    <t>Donations</t>
+  </si>
+  <si>
+    <t>Time spent</t>
+  </si>
+  <si>
+    <t>Scaler class - Bit 2
+Java AB - revise
+LinkedIn write
+Youtube - hotstar CTO</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Java AB Revise
+Scaler contest 1,2,3
+Scaler class, HW</t>
+  </si>
+  <si>
+    <t>Read
+Write</t>
+  </si>
+  <si>
+    <t>Java AB Revise
+Scaler AM, HW
+Read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WFN-IH integration
+</t>
+  </si>
+  <si>
+    <t>Java AB 
+Scaler HW</t>
+  </si>
+  <si>
+    <t>WFN IH integration</t>
+  </si>
+  <si>
+    <t>Java AB Lambda exp
+Inter friends - Santosh</t>
+  </si>
+  <si>
+    <t>TownHall</t>
+  </si>
+  <si>
+    <t>Java AB
+Scaler class - Mod</t>
+  </si>
+  <si>
+    <t>Waking up
+Read
+Write</t>
+  </si>
+  <si>
+    <t>leave</t>
+  </si>
+  <si>
+    <t>Java AB
+Scaler AM, HW
+House of dosas</t>
+  </si>
+  <si>
+    <t>Sessions</t>
+  </si>
+  <si>
+    <t>Flights+shopping</t>
+  </si>
+  <si>
+    <t>Scaler class
+Java AB
+Scaler contest 1
+Chennu dinner</t>
   </si>
 </sst>
 </file>
@@ -2597,7 +2728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2781,6 +2912,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2801,9 +2938,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3968,8 +4102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0711C60-6686-40C5-A9B5-057F5E0CC9FE}">
   <dimension ref="E3:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3978,7 +4112,8 @@
     <col min="6" max="6" width="33.21875" style="6" customWidth="1"/>
     <col min="7" max="7" width="35.109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="26.6640625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="8.88671875" style="41"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="3" spans="5:9" x14ac:dyDescent="0.3">
@@ -3994,12 +4129,12 @@
       <c r="H3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="76" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E4" s="82">
+      <c r="E4" s="75">
         <v>44866</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -4011,270 +4146,340 @@
       <c r="H4" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="I4" s="46">
+      <c r="I4" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E5" s="82">
+    <row r="5" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E5" s="75">
         <v>44867</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E6" s="82">
+      <c r="F5" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E6" s="75">
         <v>44868</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>541</v>
+      </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E7" s="82">
+      <c r="H6" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="I6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E7" s="75">
         <v>44869</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="3" t="s">
+        <v>552</v>
+      </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E8" s="82">
+      <c r="H7" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E8" s="75">
         <v>44870</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="3" t="s">
+        <v>559</v>
+      </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E9" s="82">
+      <c r="H8" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="I8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E9" s="75">
         <v>44871</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="3" t="s">
+        <v>561</v>
+      </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E10" s="82">
+      <c r="H9" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="I9" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E10" s="75">
         <v>44872</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="F10" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>564</v>
+      </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E11" s="82">
+      <c r="I10" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E11" s="75">
         <v>44873</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>566</v>
+      </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E12" s="82">
+      <c r="I11" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E12" s="75">
         <v>44874</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>568</v>
+      </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E13" s="82">
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E13" s="75">
         <v>44875</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="3" t="s">
+        <v>569</v>
+      </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E14" s="82">
+      <c r="H13" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E14" s="75">
         <v>44876</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E15" s="82">
+      <c r="F14" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="I14" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E15" s="75">
         <v>44877</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="3" t="s">
+        <v>575</v>
+      </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="H15" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="I15" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E16" s="82">
+      <c r="E16" s="75">
         <v>44878</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E17" s="82">
+      <c r="E17" s="75">
         <v>44879</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E18" s="82">
+      <c r="E18" s="75">
         <v>44880</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E19" s="82">
+      <c r="E19" s="75">
         <v>44881</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E20" s="82">
+      <c r="E20" s="75">
         <v>44882</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E21" s="82">
+      <c r="E21" s="75">
         <v>44883</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E22" s="82">
+      <c r="E22" s="75">
         <v>44884</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E23" s="82">
+      <c r="E23" s="75">
         <v>44885</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E24" s="82">
+      <c r="E24" s="75">
         <v>44886</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E25" s="82">
+      <c r="E25" s="75">
         <v>44887</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E26" s="82">
+      <c r="E26" s="75">
         <v>44888</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E27" s="82">
+      <c r="E27" s="75">
         <v>44889</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E28" s="82">
+      <c r="E28" s="75">
         <v>44890</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E29" s="82">
+      <c r="E29" s="75">
         <v>44891</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E30" s="82">
+      <c r="E30" s="75">
         <v>44892</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E31" s="82">
+      <c r="E31" s="75">
         <v>44893</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E32" s="82">
+      <c r="E32" s="75">
         <v>44894</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E33" s="82">
+      <c r="E33" s="75">
         <v>44895</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="I33" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4283,10 +4488,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8B13EF-0307-4B27-B53B-332018186558}">
-  <dimension ref="D1:Z24"/>
+  <dimension ref="D1:Z29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4336,14 +4541,14 @@
       </c>
     </row>
     <row r="2" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="G2" s="75" t="s">
+      <c r="E2" s="77"/>
+      <c r="G2" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="75"/>
+      <c r="H2" s="77"/>
       <c r="K2" s="5" t="s">
         <v>137</v>
       </c>
@@ -4712,6 +4917,12 @@
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
+      <c r="N11" s="49" t="s">
+        <v>545</v>
+      </c>
+      <c r="O11" s="49" t="s">
+        <v>12</v>
+      </c>
       <c r="R11" s="6" t="s">
         <v>525</v>
       </c>
@@ -4739,6 +4950,13 @@
         <f>SUM(L3:L11)</f>
         <v>130000</v>
       </c>
+      <c r="N12" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="O12" s="4">
+        <f>(250*12*12)</f>
+        <v>36000</v>
+      </c>
     </row>
     <row r="13" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D13" s="4" t="s">
@@ -4760,6 +4978,12 @@
         <f>SUM(H18+L12)</f>
         <v>259306</v>
       </c>
+      <c r="N13" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="O13" s="4">
+        <v>20000</v>
+      </c>
       <c r="R13" s="4" t="s">
         <v>519</v>
       </c>
@@ -4790,6 +5014,12 @@
         <f>L13/0.6</f>
         <v>432176.66666666669</v>
       </c>
+      <c r="N14" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="O14" s="4">
+        <v>120000</v>
+      </c>
       <c r="R14" s="4" t="s">
         <v>518</v>
       </c>
@@ -4823,6 +5053,13 @@
         <f>(L14/0.88)*12</f>
         <v>5893318.1818181816</v>
       </c>
+      <c r="N15" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="O15" s="4">
+        <f>(18*1000)</f>
+        <v>18000</v>
+      </c>
       <c r="R15" s="4" t="s">
         <v>509</v>
       </c>
@@ -4856,8 +5093,15 @@
       <c r="L16" s="4">
         <v>350000</v>
       </c>
-    </row>
-    <row r="17" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N16" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="O16" s="4">
+        <f>(40*400)</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D17" s="4" t="s">
         <v>28</v>
       </c>
@@ -4877,8 +5121,10 @@
       <c r="L17" s="4">
         <v>250000</v>
       </c>
-    </row>
-    <row r="18" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="4" t="s">
         <v>29</v>
       </c>
@@ -4894,8 +5140,10 @@
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D19" s="4" t="s">
         <v>30</v>
       </c>
@@ -4909,8 +5157,15 @@
         <f>SUM(L13+L16+L18+L17)</f>
         <v>859306</v>
       </c>
-    </row>
-    <row r="20" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N19" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="O19" s="4">
+        <f>(50000+300000+45*500)</f>
+        <v>372500</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D20" s="64" t="s">
         <v>39</v>
       </c>
@@ -4930,8 +5185,15 @@
         <f>(L19/0.6)</f>
         <v>1432176.6666666667</v>
       </c>
-    </row>
-    <row r="21" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N20" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="51">
+        <f>SUM(O12:O19)</f>
+        <v>582500</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="58" t="s">
         <v>16</v>
       </c>
@@ -4953,7 +5215,7 @@
         <v>19529681.81818182</v>
       </c>
     </row>
-    <row r="22" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G22" s="67" t="s">
         <v>40</v>
       </c>
@@ -4970,17 +5232,78 @@
       <c r="L22" s="69">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N22" s="49" t="s">
+        <v>554</v>
+      </c>
+      <c r="O22" s="49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.3">
       <c r="K23" s="45" t="s">
         <v>507</v>
       </c>
       <c r="L23" s="69">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N23" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="O23" s="4">
+        <f>(5000+3500+8000+3000+2500+2500+3500)</f>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.3">
       <c r="K24" s="70"/>
+      <c r="N24" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="O24" s="4">
+        <f>(5000+45000+21000)</f>
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="N25" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="O25" s="4">
+        <f>(6000+3000)</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="N26" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="O26" s="4">
+        <f>(10000+10000+5000+3000)</f>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="N27" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="O27" s="4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="N28" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" s="51">
+        <f>SUM(O23:O27)</f>
+        <v>186000</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="N29" s="51" t="s">
+        <v>558</v>
+      </c>
+      <c r="O29" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5017,30 +5340,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="F1" s="77" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="F1" s="79" t="s">
         <v>219</v>
       </c>
-      <c r="G1" s="77"/>
-      <c r="I1" s="76" t="s">
+      <c r="G1" s="79"/>
+      <c r="I1" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="M1" s="76" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="M1" s="78" t="s">
         <v>223</v>
       </c>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="Q1" s="77" t="s">
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="Q1" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
@@ -5321,11 +5644,11 @@
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
       <c r="Q10" s="7">
         <v>8</v>
       </c>
@@ -5445,11 +5768,11 @@
       <c r="S14" s="17"/>
     </row>
     <row r="15" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="80"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
       <c r="I15" s="30">
         <v>44568</v>
       </c>
@@ -5693,11 +6016,11 @@
       <c r="S22" s="17"/>
     </row>
     <row r="23" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="79" t="s">
         <v>224</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
       <c r="I23" s="31">
         <v>44595</v>
       </c>
@@ -8986,10 +9309,10 @@
       </c>
     </row>
     <row r="30" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="83" t="s">
         <v>160</v>
       </c>
       <c r="D30" s="8">
@@ -9007,8 +9330,8 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
       <c r="D31" s="8">
         <v>44831</v>
       </c>
@@ -9024,8 +9347,8 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
       <c r="D32" s="8">
         <v>44832</v>
       </c>
@@ -9041,8 +9364,8 @@
       </c>
     </row>
     <row r="33" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="8">
         <v>44833</v>
       </c>
@@ -9056,8 +9379,8 @@
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="2:8" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
       <c r="D34" s="8">
         <v>44834</v>
       </c>
